--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1758886.750301331</v>
+        <v>1756345.11870765</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>37.11181591693575</v>
       </c>
       <c r="X2" t="n">
-        <v>133.8333590606436</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>90.06435309531055</v>
+        <v>153.0783995369563</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.21398198403635</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.62893363309624</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>203.652362421925</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>12.53823624078101</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>58.54062746211016</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
         <v>251.1244928058882</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537569</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537569</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2299344537544</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>46.61251973661246</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.32149302161217</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736375</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>52.43955373840983</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.5487695386899</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
         <v>286.2513897146553</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>145.3775089204815</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>55.8857275099037</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>192.0872650464914</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>44.30855022500906</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>16.71410042222081</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>121.8455631377175</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389243</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581657</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2811815126420993</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.44047701880739</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>281.6778446725255</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057753</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>4.524736141320318e-12</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>51.35059460820201</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411469</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,10 +3035,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076584</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182141</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856684</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756221</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>35.0178230565803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576381</v>
       </c>
     </row>
     <row r="38">
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74133133758716</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428303</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759411</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520961</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127781</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>603.4370373477792</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="C2" t="n">
-        <v>414.0172523312946</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148099</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.622248520147</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201465</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201465</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201465</v>
+        <v>578.2426392372651</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201465</v>
+        <v>388.8228542207803</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201465</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="X2" t="n">
-        <v>603.4370373477792</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="Y2" t="n">
-        <v>603.4370373477792</v>
+        <v>351.3361714764008</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.7084696131274</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
         <v>15.00204697330559</v>
@@ -4413,46 +4413,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652792</v>
+        <v>533.499507267843</v>
       </c>
       <c r="U3" t="n">
-        <v>659.128254629612</v>
+        <v>378.8748612709174</v>
       </c>
       <c r="V3" t="n">
-        <v>469.7084696131274</v>
+        <v>378.8748612709174</v>
       </c>
       <c r="W3" t="n">
-        <v>469.7084696131274</v>
+        <v>378.8748612709174</v>
       </c>
       <c r="X3" t="n">
-        <v>469.7084696131274</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y3" t="n">
-        <v>469.7084696131274</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.466142935173</v>
+        <v>183.9382299012125</v>
       </c>
       <c r="C4" t="n">
-        <v>165.1186863856413</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
         <v>15.00204697330559</v>
@@ -4489,49 +4489,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349381</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295947</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242513</v>
+        <v>633.0454302264754</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608015</v>
+        <v>634.3723839608019</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846269</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846269</v>
+        <v>615.9383389575116</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846269</v>
+        <v>562.7777999341821</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846269</v>
+        <v>562.7777999341821</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681423</v>
+        <v>562.7777999341821</v>
       </c>
       <c r="V4" t="n">
-        <v>367.8859279516577</v>
+        <v>562.7777999341821</v>
       </c>
       <c r="W4" t="n">
-        <v>178.466142935173</v>
+        <v>373.3580149176973</v>
       </c>
       <c r="X4" t="n">
-        <v>178.466142935173</v>
+        <v>373.3580149176973</v>
       </c>
       <c r="Y4" t="n">
-        <v>178.466142935173</v>
+        <v>183.9382299012125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.548780597202</v>
+        <v>246.3127368398418</v>
       </c>
       <c r="C5" t="n">
-        <v>47.548780597202</v>
+        <v>246.3127368398418</v>
       </c>
       <c r="D5" t="n">
-        <v>47.548780597202</v>
+        <v>246.3127368398418</v>
       </c>
       <c r="E5" t="n">
-        <v>47.548780597202</v>
+        <v>246.3127368398418</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799853</v>
+        <v>40.60327984799834</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874631</v>
+        <v>80.99020340874563</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620542</v>
+        <v>211.2396305620525</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458683</v>
+        <v>409.7273242458652</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973856</v>
+        <v>662.2525653973811</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365787</v>
+        <v>923.4777373365727</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477538</v>
+        <v>1156.80999847753</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.45268416974</v>
+        <v>1321.452684169731</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815027</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815027</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="S5" t="n">
-        <v>1337.787790883603</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="T5" t="n">
-        <v>1337.787790883603</v>
+        <v>1183.794237576991</v>
       </c>
       <c r="U5" t="n">
-        <v>1084.126687039271</v>
+        <v>930.1331337326593</v>
       </c>
       <c r="V5" t="n">
-        <v>753.0637996957007</v>
+        <v>599.0702463890887</v>
       </c>
       <c r="W5" t="n">
-        <v>400.3062901464514</v>
+        <v>599.0702463890887</v>
       </c>
       <c r="X5" t="n">
-        <v>47.548780597202</v>
+        <v>599.0702463890887</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.548780597202</v>
+        <v>246.3127368398418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>518.0305070450127</v>
+        <v>336.1102594230071</v>
       </c>
       <c r="C6" t="n">
-        <v>518.0305070450127</v>
+        <v>336.1102594230071</v>
       </c>
       <c r="D6" t="n">
-        <v>470.9471537757071</v>
+        <v>187.1758497617558</v>
       </c>
       <c r="E6" t="n">
-        <v>311.7096987702516</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="F6" t="n">
-        <v>165.1751407971366</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="G6" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143108</v>
+        <v>165.5479665784352</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379378</v>
+        <v>265.5449014249411</v>
       </c>
       <c r="L6" t="n">
-        <v>418.2953425242554</v>
+        <v>446.325661869453</v>
       </c>
       <c r="M6" t="n">
-        <v>648.6148312576677</v>
+        <v>743.5284611879757</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668869</v>
+        <v>994.3524663668796</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459971</v>
+        <v>1201.587633459963</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983956</v>
+        <v>1348.579058983946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815027</v>
+        <v>1396.919737815017</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.919737815027</v>
+        <v>1388.514189308338</v>
       </c>
       <c r="S6" t="n">
-        <v>1396.919737815027</v>
+        <v>1242.848713880422</v>
       </c>
       <c r="T6" t="n">
-        <v>1396.919737815027</v>
+        <v>1046.684307603433</v>
       </c>
       <c r="U6" t="n">
-        <v>1168.794414247242</v>
+        <v>1046.684307603433</v>
       </c>
       <c r="V6" t="n">
-        <v>933.6423060154993</v>
+        <v>811.5321993716907</v>
       </c>
       <c r="W6" t="n">
-        <v>933.6423060154993</v>
+        <v>557.2948426434891</v>
       </c>
       <c r="X6" t="n">
-        <v>725.7908058099665</v>
+        <v>504.3255964430751</v>
       </c>
       <c r="Y6" t="n">
-        <v>518.0305070450127</v>
+        <v>504.3255964430751</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.1411592207046</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="C7" t="n">
-        <v>376.1411592207046</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="D7" t="n">
-        <v>343.2636142321289</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="E7" t="n">
-        <v>343.2636142321289</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="F7" t="n">
-        <v>196.3736667342186</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="G7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630055</v>
+        <v>27.93839475630035</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874694</v>
+        <v>148.5233105874688</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208647</v>
+        <v>358.3569215208635</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014284</v>
+        <v>589.9861665014266</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750262</v>
+        <v>821.5424021750238</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767887</v>
+        <v>1019.405768767884</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612033</v>
+        <v>1165.19137861203</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.69069804927</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.69069804927</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049274</v>
+        <v>978.2404632305949</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049274</v>
+        <v>753.3443512933991</v>
       </c>
       <c r="U7" t="n">
-        <v>893.5478801556826</v>
+        <v>464.2015333998079</v>
       </c>
       <c r="V7" t="n">
-        <v>893.5478801556826</v>
+        <v>464.2015333998079</v>
       </c>
       <c r="W7" t="n">
-        <v>604.1307101187219</v>
+        <v>174.7843633628473</v>
       </c>
       <c r="X7" t="n">
-        <v>376.1411592207046</v>
+        <v>174.7843633628473</v>
       </c>
       <c r="Y7" t="n">
-        <v>376.1411592207046</v>
+        <v>27.93839475630035</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1279.622812416483</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.622812416483</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.622812416483</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>893.8345598182391</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
         <v>837.3843300102556</v>
@@ -4802,13 +4802,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>1669.762144392295</v>
+        <v>1990.031519739804</v>
       </c>
       <c r="Y8" t="n">
-        <v>1279.622812416483</v>
+        <v>1599.892187763993</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.4733549031283</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="C10" t="n">
-        <v>665.4733549031283</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>665.4733549031283</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1619.563190355082</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1133.816105018781</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>879.1316168128944</v>
       </c>
       <c r="W10" t="n">
-        <v>1114.255484944676</v>
+        <v>589.7144467759339</v>
       </c>
       <c r="X10" t="n">
-        <v>886.2659340466585</v>
+        <v>589.7144467759339</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.4733549031283</v>
+        <v>368.9218676324038</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>991.7436897307817</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>822.8075068028749</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>672.6908673905391</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y13" t="n">
-        <v>1173.392154561021</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>550.9217088032285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>403.0086152208354</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,22 +5513,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2412.174722955203</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2412.174722955203</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2192.573257978144</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1903.498031322342</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1648.813543116455</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1359.396373079494</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5887,16 +5887,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6206,22 +6206,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3403484614387</v>
+        <v>554.581316546021</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4041655335318</v>
+        <v>385.6451336181141</v>
       </c>
       <c r="D31" t="n">
-        <v>664.287526121196</v>
+        <v>235.5284942057783</v>
       </c>
       <c r="E31" t="n">
-        <v>516.3744325388029</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4844850408925</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>957.0223605197908</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>736.2297813762607</v>
       </c>
     </row>
     <row r="32">
@@ -6683,7 +6683,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536398</v>
+        <v>633.4413279836788</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257329</v>
+        <v>464.5051450557719</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>464.5051450557719</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557719</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578615</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578615</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000596</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524077</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868275</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662388</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625427</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.30966972741</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.51709058388</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>986.1256051221234</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>817.1894221942165</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>667.0727827818807</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.55619999391</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.55619999391</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.566649095893</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.774069952363</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7412,16 +7412,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400726</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121657</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270456</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797756</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1474.429081454766</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.28419561186</v>
+        <v>1185.011911417805</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138424</v>
+        <v>957.0223605197875</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703123</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400699</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>344.917417812163</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>344.917417812163</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>344.917417812163</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>344.917417812163</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270429</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7813,43 +7813,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703096</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,19 +8137,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>74.0341892652893</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>145.8220995101052</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898915</v>
+        <v>41.92993463898969</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.77758145636841</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>67.55889958092069</v>
       </c>
       <c r="N6" t="n">
-        <v>95.87235346496385</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>255.8421700460946</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>24.58839950885169</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>65.5498640939291</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.1398665102892</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>31.93476969131427</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>4.506629716718692</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715173</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>114.1735436840668</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864789023</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711715</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516662</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>111.4161395899889</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944567</v>
       </c>
     </row>
     <row r="38">
@@ -25451,7 +25451,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5054897610407</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194086</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.3204386478869</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194356</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>902730.3368908032</v>
+        <v>902730.3368908031</v>
       </c>
     </row>
     <row r="4">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320151</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>880491.4179320153</v>
+        <v>880491.4179320151</v>
       </c>
     </row>
     <row r="12">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583918</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583916</v>
-      </c>
       <c r="E2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.954790754</v>
-      </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907538</v>
@@ -26353,7 +26353,7 @@
         <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427132</v>
+        <v>178997.5061427103</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731194</v>
+        <v>301519.8707731222</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245459</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267302</v>
+        <v>41617.5244526723</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019503</v>
+        <v>73739.30240019584</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806964</v>
+        <v>229588.1389806972</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26430,13 +26430,13 @@
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
@@ -26454,7 +26454,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029187</v>
+        <v>69851.97930029167</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-371610.3567047806</v>
+        <v>-371610.3567047812</v>
       </c>
       <c r="C6" t="n">
-        <v>75765.57023468967</v>
+        <v>75765.57023469261</v>
       </c>
       <c r="D6" t="n">
-        <v>14590.32074748926</v>
+        <v>14590.32074748621</v>
       </c>
       <c r="E6" t="n">
-        <v>-77390.82476954174</v>
+        <v>-77425.56269497731</v>
       </c>
       <c r="F6" t="n">
-        <v>430094.616855004</v>
+        <v>430059.8789295685</v>
       </c>
       <c r="G6" t="n">
-        <v>430094.6168550039</v>
+        <v>430059.8789295683</v>
       </c>
       <c r="H6" t="n">
-        <v>430094.6168550042</v>
+        <v>430059.8789295682</v>
       </c>
       <c r="I6" t="n">
-        <v>430094.6168550039</v>
+        <v>430059.8789295683</v>
       </c>
       <c r="J6" t="n">
-        <v>381029.6721264595</v>
+        <v>380994.9342010239</v>
       </c>
       <c r="K6" t="n">
-        <v>388477.092402331</v>
+        <v>388442.3544768962</v>
       </c>
       <c r="L6" t="n">
-        <v>356355.3144548091</v>
+        <v>356320.5765293724</v>
       </c>
       <c r="M6" t="n">
-        <v>297487.3231260774</v>
+        <v>297452.5852006414</v>
       </c>
       <c r="N6" t="n">
-        <v>430094.6168550039</v>
+        <v>430059.8789295682</v>
       </c>
       <c r="O6" t="n">
-        <v>430094.6168550043</v>
+        <v>430059.8789295686</v>
       </c>
       <c r="P6" t="n">
-        <v>430094.6168550042</v>
+        <v>430059.8789295681</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955714</v>
+        <v>687.6696919955692</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537569</v>
+        <v>349.2299344537544</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826669</v>
+        <v>139.1997510826646</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219677</v>
+        <v>246.3952001219701</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.704347287437</v>
+        <v>161.7043472874344</v>
       </c>
       <c r="D4" t="n">
-        <v>291.354897646282</v>
+        <v>291.3548976462845</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874368</v>
+        <v>161.704347287434</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462815</v>
+        <v>291.3548976462847</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.704347287437</v>
+        <v>161.7043472874344</v>
       </c>
       <c r="L4" t="n">
-        <v>291.354897646282</v>
+        <v>291.3548976462845</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.404782905942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27436,13 +27436,13 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>312.1291528004772</v>
       </c>
       <c r="X2" t="n">
-        <v>235.8977416178254</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681327</v>
       </c>
       <c r="U3" t="n">
-        <v>135.7994153147804</v>
+        <v>72.78536887313459</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715755</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>154.0328391145915</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.1513221624</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713046</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750819</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027119</v>
+        <v>98.99741117027108</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577487</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>203.2236833197864</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>311.1628534397888</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908712</v>
+        <v>103.8974541908715</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>87.48336933479212</v>
+        <v>146.0239967969025</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365614268</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>20.50116622471216</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>37.00800420229922</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>100.8325458280263</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277714</v>
+        <v>97.95007950277719</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419586</v>
+        <v>38.47015094419603</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611886</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736374</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>153.3334314650676</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>116.0667034795225</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285476</v>
+        <v>118.1584857285477</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057074</v>
+        <v>5.686931024057344</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>121.535779957332</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>73.20714443161333</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>350.9903182318077</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>177.6438356319777</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>102.1254124215601</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.84347199735281</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29676,7 +29676,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -29755,10 +29755,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29925,7 +29925,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30198,10 +30198,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="V37" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354054</v>
+        <v>2.764501274354045</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597846</v>
+        <v>28.31194867597837</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795348</v>
+        <v>106.5784353795344</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342076</v>
+        <v>234.6335900342068</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776148</v>
+        <v>351.6549289776136</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526277</v>
+        <v>436.2590348526263</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904216</v>
+        <v>485.42223439042</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361801</v>
+        <v>493.2768736361785</v>
       </c>
       <c r="O5" t="n">
-        <v>465.787364089322</v>
+        <v>465.7873640893205</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787062</v>
+        <v>397.5387388787049</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909015</v>
+        <v>298.5350369909006</v>
       </c>
       <c r="R5" t="n">
-        <v>173.655603175143</v>
+        <v>173.6556031751424</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934306</v>
+        <v>62.99607278934286</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848488</v>
+        <v>12.10160432848484</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483243</v>
+        <v>0.2211601019483236</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782927</v>
+        <v>1.479138582782922</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371932</v>
+        <v>14.28536473371928</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721921</v>
+        <v>50.92648190721905</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233642</v>
+        <v>139.7461588233638</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698203</v>
+        <v>238.8484438698196</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117054</v>
+        <v>321.1612085117043</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375863</v>
+        <v>374.7799821375852</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721263</v>
+        <v>384.6992930721251</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536204</v>
+        <v>351.9246960536193</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122942</v>
+        <v>282.4505948122933</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022558</v>
+        <v>188.8107426022552</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103125</v>
+        <v>91.83634113103096</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020041</v>
+        <v>27.47435043020032</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603112</v>
+        <v>5.961966480603094</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729788</v>
+        <v>0.09731174886729757</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319883</v>
+        <v>1.240060100319879</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920769</v>
+        <v>11.02526161920766</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871067</v>
+        <v>37.29198919871055</v>
       </c>
       <c r="J7" t="n">
-        <v>87.6722490926157</v>
+        <v>87.67224909261543</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098918</v>
+        <v>144.0724371098914</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966488</v>
+        <v>184.3631170966482</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619612</v>
+        <v>194.3850573619606</v>
       </c>
       <c r="N7" t="n">
-        <v>189.76301516986</v>
+        <v>189.7630151698594</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433959</v>
+        <v>175.2768585433953</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968701</v>
+        <v>149.9796324968696</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913313</v>
+        <v>103.8381234913309</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983762</v>
+        <v>55.75761141983745</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648377</v>
+        <v>21.6108655664837</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457679</v>
+        <v>5.298438610457662</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183563004</v>
+        <v>0.06763964183562983</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>454.5879800486398</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>202.2352659288684</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,28 +32078,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175004</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>169.4872848053134</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752129</v>
+        <v>53.58768550752055</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326342</v>
+        <v>131.5650779326331</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826404</v>
+        <v>200.4926198826391</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631488</v>
+        <v>255.0760011631473</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395892</v>
+        <v>263.8638100395876</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676352</v>
+        <v>235.6891526676337</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234366</v>
+        <v>166.3057431234354</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645203</v>
+        <v>76.22934711645112</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.9085321566975</v>
+        <v>138.9995674971059</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954613</v>
+        <v>101.0070048954606</v>
       </c>
       <c r="L6" t="n">
-        <v>280.3844101881996</v>
+        <v>182.6068287318301</v>
       </c>
       <c r="M6" t="n">
-        <v>232.645948215568</v>
+        <v>300.2048477964876</v>
       </c>
       <c r="N6" t="n">
-        <v>349.2299344537569</v>
+        <v>253.3575809887918</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091759</v>
+        <v>209.3284516091749</v>
       </c>
       <c r="P6" t="n">
-        <v>148.476187397964</v>
+        <v>148.4761873979631</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623426</v>
+        <v>48.82896851623366</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840089</v>
+        <v>121.8029452840085</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569649</v>
+        <v>211.9531423569643</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238018</v>
+        <v>233.9689343238012</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490886</v>
+        <v>233.895187549088</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574355</v>
+        <v>199.861986457435</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617636</v>
+        <v>147.2581917617631</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963689</v>
+        <v>17.67608023963656</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>505.5216991696269</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>311.9917356041954</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899066</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191325</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
